--- a/Blowdown_soil_fractionation_Kunal_20180508.xlsx
+++ b/Blowdown_soil_fractionation_Kunal_20180508.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Yr 1 and 2 C Ratio" sheetId="5" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="311">
   <si>
     <t>Sample ID</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>SiteLoc</t>
+  </si>
+  <si>
+    <t>Fraction New C</t>
   </si>
 </sst>
 </file>
@@ -1901,22 +1904,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA83"/>
+  <dimension ref="A1:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="10.83203125"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="10.83203125"/>
     <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1957,6 +1956,9 @@
       <c r="L1" t="s">
         <v>144</v>
       </c>
+      <c r="M1" t="s">
+        <v>310</v>
+      </c>
       <c r="N1" t="s">
         <v>135</v>
       </c>
@@ -2035,6 +2037,10 @@
       </c>
       <c r="T2" t="s">
         <v>151</v>
+      </c>
+      <c r="U2">
+        <f>AVERAGE(S2:S3)</f>
+        <v>-13.572500000000002</v>
       </c>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -6100,6 +6106,670 @@
       </c>
       <c r="P83">
         <v>14.852605585234864</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>G84&amp;I84</f>
+        <v>S3Upper</v>
+      </c>
+      <c r="B84">
+        <v>2016</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" s="21">
+        <v>-27.53</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J84" s="21">
+        <v>5</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L84" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21">
+        <v>1.4704610097913531</v>
+      </c>
+      <c r="O84" s="21">
+        <v>28.53518279049435</v>
+      </c>
+      <c r="P84" s="22">
+        <v>19.40560314111509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f t="shared" ref="A85:A99" si="3">G85&amp;I85</f>
+        <v>S3Upper</v>
+      </c>
+      <c r="B85">
+        <v>2016</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="58">
+        <v>-26.297999999999998</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J85" s="58">
+        <v>5</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L85" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M85" s="25"/>
+      <c r="N85" s="27">
+        <v>0.38178656957949741</v>
+      </c>
+      <c r="O85" s="27">
+        <v>5.729379083113626</v>
+      </c>
+      <c r="P85" s="28">
+        <v>15.006759115240767</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Upper</v>
+      </c>
+      <c r="B86">
+        <v>2016</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" s="24">
+        <v>-28.934999999999999</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J86" s="24">
+        <v>8</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L86" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M86" s="25">
+        <f>(H86-H84)/(AVERAGE($Q$2:$Q$3)-H84)</f>
+        <v>-1.8122017283632112E-2</v>
+      </c>
+      <c r="N86">
+        <v>1.321038727995183</v>
+      </c>
+      <c r="O86">
+        <v>27.121157478115119</v>
+      </c>
+      <c r="P86">
+        <v>20.530175916397521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Upper</v>
+      </c>
+      <c r="B87">
+        <v>2016</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" s="27">
+        <v>-26.396999999999998</v>
+      </c>
+      <c r="I87" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J87" s="27">
+        <v>8</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L87" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M87" s="28">
+        <f>(H87-H85)/(AVERAGE($Q$2:$Q$3)-H85)</f>
+        <v>-1.2975438412540328E-3</v>
+      </c>
+      <c r="N87">
+        <v>0.32513924032005981</v>
+      </c>
+      <c r="O87">
+        <v>4.8517174715780129</v>
+      </c>
+      <c r="P87">
+        <v>14.921968405911542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Upper</v>
+      </c>
+      <c r="B88">
+        <v>2016</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="58">
+        <v>-27.634</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J88" s="58">
+        <v>7</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M88" s="25"/>
+      <c r="N88">
+        <v>1.2344235222282278</v>
+      </c>
+      <c r="O88">
+        <v>31.440164800405388</v>
+      </c>
+      <c r="P88">
+        <v>25.469512071232661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Upper</v>
+      </c>
+      <c r="B89">
+        <v>2016</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" s="58">
+        <v>-26.835999999999999</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J89" s="58">
+        <v>7</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M89" s="25"/>
+      <c r="N89">
+        <v>0.3549999155184389</v>
+      </c>
+      <c r="O89">
+        <v>5.377513195829688</v>
+      </c>
+      <c r="P89">
+        <v>15.147928100141694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Upper</v>
+      </c>
+      <c r="B90">
+        <v>2016</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" s="24">
+        <v>-27.870999999999999</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J90" s="24">
+        <v>6</v>
+      </c>
+      <c r="K90" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M90" s="25">
+        <f>(H90-H88)/(AVERAGE($Q$2:$Q$3)-H88)</f>
+        <v>-3.0527861503980001E-3</v>
+      </c>
+      <c r="N90">
+        <v>1.3928429469537897</v>
+      </c>
+      <c r="O90">
+        <v>30.237461686614282</v>
+      </c>
+      <c r="P90">
+        <v>21.709168110263239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Upper</v>
+      </c>
+      <c r="B91">
+        <v>2016</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" s="27">
+        <v>-26.302</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J91" s="27">
+        <v>6</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="L91" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M91" s="28">
+        <f>(H91-H89)/(AVERAGE($Q$2:$Q$3)-H89)</f>
+        <v>6.949867249726677E-3</v>
+      </c>
+      <c r="N91">
+        <v>0.26595756423705552</v>
+      </c>
+      <c r="O91">
+        <v>3.6993593573838761</v>
+      </c>
+      <c r="P91">
+        <v>13.909585042245808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B92">
+        <v>2016</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" s="21">
+        <v>-27.911000000000001</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J92" s="21">
+        <v>6</v>
+      </c>
+      <c r="K92" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L92" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M92" s="22"/>
+      <c r="N92">
+        <v>1.289316417785854</v>
+      </c>
+      <c r="O92">
+        <v>29.269652274755995</v>
+      </c>
+      <c r="P92">
+        <v>22.701682745202945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B93">
+        <v>2016</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" s="58">
+        <v>-26.62</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J93" s="58">
+        <v>6</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L93" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M93" s="25"/>
+      <c r="N93">
+        <v>0.31958925999043919</v>
+      </c>
+      <c r="O93">
+        <v>4.9656469970019597</v>
+      </c>
+      <c r="P93">
+        <v>15.537590334388932</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B94">
+        <v>2016</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="24">
+        <v>-27.577000000000002</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J94" s="24">
+        <v>5</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L94" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M94" s="25">
+        <f>(H94-H92)/(AVERAGE($Q$2:$Q$3)-H92)</f>
+        <v>4.2869427937004996E-3</v>
+      </c>
+      <c r="N94" s="21">
+        <v>1.4936075388961911</v>
+      </c>
+      <c r="O94" s="21">
+        <v>29.68468424434932</v>
+      </c>
+      <c r="P94" s="22">
+        <v>19.874487421432644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B95">
+        <v>2016</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" s="27">
+        <v>-25.635000000000002</v>
+      </c>
+      <c r="I95" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J95" s="27">
+        <v>5</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L95" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M95" s="28">
+        <f>(H95-H93)/(AVERAGE($Q$2:$Q$3)-H93)</f>
+        <v>1.2855651265987984E-2</v>
+      </c>
+      <c r="N95" s="27">
+        <v>0.24932594860405777</v>
+      </c>
+      <c r="O95" s="27">
+        <v>3.5557383421710052</v>
+      </c>
+      <c r="P95" s="28">
+        <v>14.26140504860847</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B96">
+        <v>2016</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" s="21">
+        <v>-27.853000000000002</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J96" s="21">
+        <v>7</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="L96" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M96" s="22"/>
+      <c r="N96">
+        <v>1.2431328532403549</v>
+      </c>
+      <c r="O96">
+        <v>27.90203397069638</v>
+      </c>
+      <c r="P96">
+        <v>22.444933297327658</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B97">
+        <v>2016</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" s="24">
+        <v>-29.498000000000001</v>
+      </c>
+      <c r="I97" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J97" s="24">
+        <v>7</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L97" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M97" s="25"/>
+      <c r="N97">
+        <v>0.32351800593040841</v>
+      </c>
+      <c r="O97">
+        <v>5.0034206911110282</v>
+      </c>
+      <c r="P97">
+        <v>15.46566373244557</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B98">
+        <v>2016</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="24">
+        <v>-27.334</v>
+      </c>
+      <c r="I98" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J98" s="24">
+        <v>8</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L98" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M98" s="25">
+        <f>(H98-H96)/(AVERAGE($Q$2:$Q$3)-H96)</f>
+        <v>6.6664097722631353E-3</v>
+      </c>
+      <c r="N98">
+        <v>1.1292422902870833</v>
+      </c>
+      <c r="O98">
+        <v>34.145207697625885</v>
+      </c>
+      <c r="P98">
+        <v>30.237273250672597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>S3Lower</v>
+      </c>
+      <c r="B99">
+        <v>2016</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" s="27">
+        <v>-26.257000000000001</v>
+      </c>
+      <c r="I99" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J99" s="27">
+        <v>8</v>
+      </c>
+      <c r="K99" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="L99" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M99" s="28">
+        <f>(H99-H97)/(AVERAGE($Q$2:$Q$3)-H97)</f>
+        <v>4.076832121562806E-2</v>
+      </c>
+      <c r="N99">
+        <v>0.22256513073272369</v>
+      </c>
+      <c r="O99">
+        <v>3.2283866228104223</v>
+      </c>
+      <c r="P99">
+        <v>14.505356756388585</v>
       </c>
     </row>
   </sheetData>
@@ -6126,7 +6796,6 @@
     <col min="6" max="6" width="6.1640625" style="16" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125"/>
     <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
@@ -9737,7 +10406,6 @@
     <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -11536,12 +12204,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125"/>
     <col min="11" max="11" width="13.1640625" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="10.83203125"/>
     <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="21" max="21" width="9.5" customWidth="1"/>
